--- a/biology/Zoologie/Celtedens/Celtedens.xlsx
+++ b/biology/Zoologie/Celtedens/Celtedens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celtedens est un genre fossile d'amphibiens albanerpetontidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Celtedens date du Crétacé inférieur sur les territoires d'Angleterre, d'Espagne, de Suède et d'Italie, et du Jurassique supérieur au Portugal[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Celtedens date du Crétacé inférieur sur les territoires d'Angleterre, d'Espagne, de Suède et d'Italie, et du Jurassique supérieur au Portugal,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Celtedens est décrit en 1995 par les paléontologues McGowan and Evans (d)[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Celtedens est décrit en 1995 par les paléontologues McGowan and Evans (d),.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Paleobiology Database consulté le 6 mai 2023 :
 †Celtedens ibericus (McGowan et Evans 1995) - formation de La Huérguina, Espagne, Barrémien
 †Celtedens megacephalus (Costa 1864) - formation de Lulworth, Royaume-Uni, Berriasien, Pietraroja Plattenkalk, Italie, Albien
-Des restes indéterminés attribués à ce genre sont également connus de la formation du Jurassique supérieur d'Alcobaça au Portugal, ainsi que du premier Crétacé (Berriasien) de Suède[5].
+Des restes indéterminés attribués à ce genre sont également connus de la formation du Jurassique supérieur d'Alcobaça au Portugal, ainsi que du premier Crétacé (Berriasien) de Suède.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arbre phylogénique ou cladogramme peut être présenté à partir de l'étude de Daza et al. de 2020[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arbre phylogénique ou cladogramme peut être présenté à partir de l'étude de Daza et al. de 2020.
 </t>
         </is>
       </c>
